--- a/xlsx/布鲁金斯学会_intext.xlsx
+++ b/xlsx/布鲁金斯学会_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>布鲁金斯学会</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E7%89%B9%E5%8D%80</t>
   </si>
   <si>
-    <t>華盛頓特區</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_布鲁金斯学会</t>
+    <t>华盛顿特区</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_布鲁金斯学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E7%89%B9%E5%8C%BA</t>
   </si>
   <si>
-    <t>华盛顿特区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E6%B4%BE</t>
   </si>
   <si>
@@ -95,7 +92,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E8%8F%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>清華大學</t>
+    <t>清华大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC</t>
@@ -137,7 +134,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -167,7 +164,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -718,7 +715,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -744,10 +741,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -773,10 +770,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -802,10 +799,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -831,10 +828,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -860,10 +857,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -889,10 +886,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -918,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -947,10 +944,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -976,10 +973,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1005,10 +1002,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1034,10 +1031,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1063,10 +1060,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1092,10 +1089,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -1121,10 +1118,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1150,10 +1147,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -1179,10 +1176,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1208,10 +1205,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1237,10 +1234,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1266,10 +1263,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
